--- a/answer-sheet.xlsx
+++ b/answer-sheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zmirza/_source/jeopardy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avniprasad/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="answer-sheet.csv" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -38,33 +41,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>soothing tool</t>
-  </si>
-  <si>
-    <t>What is a pacifier?</t>
-  </si>
-  <si>
-    <t>cleaning squares</t>
-  </si>
-  <si>
-    <t>What are baby wipes?</t>
-  </si>
-  <si>
-    <t>five point safety harness</t>
-  </si>
-  <si>
-    <t>What is a car seat?</t>
-  </si>
-  <si>
-    <t>found 'in the tree' tops</t>
-  </si>
-  <si>
-    <t>What is a cradle?</t>
-  </si>
-  <si>
-    <t>What is the cost to raise a child the first year (not including medical costs)?</t>
-  </si>
-  <si>
     <t>Jack and Jill went up the hill to fetch __________</t>
   </si>
   <si>
@@ -89,115 +65,142 @@
     <t>What is 'Hey Diddle Diddle' ?</t>
   </si>
   <si>
-    <t>Jack's mother used this to fix his crown</t>
-  </si>
-  <si>
-    <t>What is Vinegar and brown paper?</t>
-  </si>
-  <si>
-    <t>When is it time to go to the hospital?</t>
-  </si>
-  <si>
-    <t>Babies are born without this body part.</t>
-  </si>
-  <si>
-    <t>What are knee caps?</t>
-  </si>
-  <si>
-    <t>First of the five senses to develop.</t>
-  </si>
-  <si>
-    <t>What is hearing?</t>
-  </si>
-  <si>
     <t>Babies heads are_____________the size of their bodies at birth.</t>
   </si>
   <si>
     <t>What is 'one quarter' ?</t>
   </si>
   <si>
-    <t>Pregnant women should avoid deli style lunch meats because of this bacteria</t>
-  </si>
-  <si>
-    <t>What is Listeria?</t>
-  </si>
-  <si>
-    <t>Family of fish</t>
-  </si>
-  <si>
-    <t>What is a school?</t>
-  </si>
-  <si>
-    <t>Family of wolves</t>
-  </si>
-  <si>
-    <t>What is a pack?</t>
-  </si>
-  <si>
-    <t>Family of elephants</t>
-  </si>
-  <si>
-    <t>What is a herd?</t>
-  </si>
-  <si>
-    <t>Family of lions</t>
-  </si>
-  <si>
-    <t>What is a pride?</t>
-  </si>
-  <si>
-    <t>Family of geese</t>
-  </si>
-  <si>
-    <t>What is a gaggle?</t>
-  </si>
-  <si>
-    <t>Name 1 of the 3 kids on The Simpsons</t>
-  </si>
-  <si>
-    <t>Name 3 of the 6 Brady Bunch kids</t>
-  </si>
-  <si>
-    <t>Name Fred and Wilma's child on The Flintstones</t>
-  </si>
-  <si>
-    <t>Who is Pebbles?</t>
-  </si>
-  <si>
-    <t>Name 1 of Ross Gellar's kids on Friends</t>
-  </si>
-  <si>
-    <t>Who are Ben or Emma?</t>
-  </si>
-  <si>
-    <t>Name 2 of the 5 Huxtable kids on The Cosby Show</t>
-  </si>
-  <si>
-    <t>Contractions every 4-5 minutes for 1-2 hours  or water breaks</t>
-  </si>
-  <si>
-    <t>Who is Bart,  Maggie, or Lisa?</t>
-  </si>
-  <si>
-    <t>Who are Sondra, Denise, Theo Vaneessa, or Rudy?</t>
-  </si>
-  <si>
-    <t>Who are Marcia, Jan, Cindy, Greg, Peter, or Bobby?</t>
-  </si>
-  <si>
-    <t>Game Plan and Equipment</t>
-  </si>
-  <si>
-    <t>Nursery Rhymes</t>
-  </si>
-  <si>
-    <t>Arriving and Arrived</t>
-  </si>
-  <si>
-    <t>Name the Animal Family</t>
-  </si>
-  <si>
-    <t>Name the TV children</t>
+    <t xml:space="preserve">False (pregnant/sick women, elderly, children before puberty don’t have to fast) </t>
+  </si>
+  <si>
+    <t>False (Hajj is an important pilgrimage to Makkah that a Muslim must undertake at least once in their life, if they are financially able to)</t>
+  </si>
+  <si>
+    <t>False (They should acknowledge that Allah is their God and Muhammad is his prophet along with fasting, reading Quran, and going to the mosque)</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the approximate number and percentage of Muslims in the U.S.? </t>
+  </si>
+  <si>
+    <t>3.5 million, around 1 percent of U.S. population</t>
+  </si>
+  <si>
+    <t>What percentage of Muslim women in the U.S. actually wear hijabs?</t>
+  </si>
+  <si>
+    <t>43 percent of Muslim women wear hijabs</t>
+  </si>
+  <si>
+    <t>List 5 of the 7 countries that Trump’s Muslim Ban covers.</t>
+  </si>
+  <si>
+    <t>Possible answers: Iran, Syria, Yemen, Iraq, Somalia, Sudan, and Libya</t>
+  </si>
+  <si>
+    <t>Which country has the highest percentage of Muslims?</t>
+  </si>
+  <si>
+    <t>Indonesia has 87.2 percent Muslim population</t>
+  </si>
+  <si>
+    <t>Famous Muslims</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>What is the name of one of the biggest muslim empires in history?</t>
+  </si>
+  <si>
+    <t>Ottoman Empire</t>
+  </si>
+  <si>
+    <t>What was the primary method through which Islam spread to lands outside of Saudi Arabia?</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>In which year did the Prophet Muhammad (pbuh) first receive the Quran?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610 CE </t>
+  </si>
+  <si>
+    <t>Five Pillars</t>
+  </si>
+  <si>
+    <t>What are the five pillars of Islam?</t>
+  </si>
+  <si>
+    <t>Practicing Islamic faith, 5 daily prayers, giving to charity, fasting in Ramadan, holy pilgrimage</t>
+  </si>
+  <si>
+    <t>True or False: In Ramadan all Muslims are supposed to abstain from food + drinks from sunrise to sunset, regardless of health conditions or age.</t>
+  </si>
+  <si>
+    <t>True or False: Hajj is a basic vacation trip for the family</t>
+  </si>
+  <si>
+    <t>True or False: For practicing faith, a Muslim only has to perform the 5 daily prayers</t>
+  </si>
+  <si>
+    <t>Laws on Muslims</t>
+  </si>
+  <si>
+    <t>True or False: France was the first country in Europe to ban Islamic face veils, such as the burka and the niqab, in public places.</t>
+  </si>
+  <si>
+    <t>True or false: In Belgium, Women who cover their faces in public places like streets and parks can be fined and sentenced to up to seven days in jail.</t>
+  </si>
+  <si>
+    <t>How many European countries have enforced some form of bans on face veils, which are worn by some Muslim women?</t>
+  </si>
+  <si>
+    <t>True, Fance was the first country to ban Islamic face veils in Europe</t>
+  </si>
+  <si>
+    <t>True, women who cover their faces in Belgium can be fined and sentenced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 countries: The Netherlands, France, Belguim, Bulgaria, Switzerland, Italy </t>
+  </si>
+  <si>
+    <t>Legally, can schools in the UK prevent students from wearing face veils?</t>
+  </si>
+  <si>
+    <t>Yes, the UK does not have a ban on Islamic dress but schools can decide their own dress code and prevent students from wearing face veils.</t>
+  </si>
+  <si>
+    <t>Culture/Holidays</t>
+  </si>
+  <si>
+    <t>What type of Calendar do Muslims follow?</t>
+  </si>
+  <si>
+    <t>Lunar</t>
+  </si>
+  <si>
+    <t>In which month was the Holy Quran (the Holy book for Muslims) revealed?</t>
+  </si>
+  <si>
+    <t>Ramadan</t>
+  </si>
+  <si>
+    <t>What is Eid ul Adha?</t>
+  </si>
+  <si>
+    <t>'Id Al-Adha or Eid al-Adha (Arabic عيد الأضحى, "Festival of the Sacrifice") is a major Islamic festival that takes place at the end of the Hajj.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between Eid ul Adha and Eid ul Fitr? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eid ul Adha is the Eid of Sacrifice at the end of the season of Hajj whilst Eid ul Fitr is the celebration of the end of Ramadan </t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +225,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,6 +263,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +555,7 @@
     <col min="3" max="4" width="61.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,322 +566,397 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>400</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>600</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>800</v>
-      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>200</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>400</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>600</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>800</v>
-      </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>200</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>400</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>600</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>800</v>
-      </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1000</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>200</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>400</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>600</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>800</v>
-      </c>
       <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1000</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>200</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>300</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>400</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>200</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>300</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>400</v>
       </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>600</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>800</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1000</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:C21">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
